--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1368481.653924708</v>
+        <v>-1371079.485497344</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>232.0915465407615</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>145.3746739074551</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.33272143706853</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0705343561849</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>64.10541333226645</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>240.3635537979622</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>106.0942014444379</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>188.9848960025381</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>75.41382370362359</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>47.22593971365005</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>31.84589911397008</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>68.10482502017959</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>150.6726801246949</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>52.4768221085285</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.8793091068253</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578129</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659135752</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>36.22494343870324</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656.1154853312732</v>
+        <v>1176.4303492732</v>
       </c>
       <c r="C2" t="n">
-        <v>656.1154853312732</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="D2" t="n">
-        <v>656.1154853312732</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E2" t="n">
-        <v>656.1154853312732</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>656.1154853312732</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,16 +4325,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1953.169521313134</v>
       </c>
       <c r="Y2" t="n">
-        <v>1042.715325395395</v>
+        <v>1563.030189337322</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.9284545426499</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="C4" t="n">
-        <v>496.992271614743</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197398</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993806</v>
+        <v>667.7261630934931</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.6180721558504</v>
+        <v>488.8670374811852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>863.5793116912603</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>477.791059093016</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>470.8455583438126</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3082.814353126381</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2751.75146578281</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1820.128688043606</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1598.362072613133</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1309.259205738776</v>
+        <v>1233.117756896375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.574717532889</v>
+        <v>1233.117756896375</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.574717532889</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="X7" t="n">
-        <v>826.5851666348717</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.5851666348717</v>
+        <v>943.7005868594143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>893.2540998721647</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>482.2681950825572</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.041072043026</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1768.671338300385</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.986850094498</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.569680057538</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>996.5801291595203</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5130,16 +5130,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782941</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1653.302830625877</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171287</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4550657171287</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>583.338426304793</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>435.4253327223998</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>288.5353852244895</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>288.5353852244895</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8235540666875</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831764</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625877</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588916</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690899</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473685</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,46 +5981,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,16 +6242,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1053.171308869726</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>884.2351259418192</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>734.1184865294834</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>586.2053929470903</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>439.3154454491799</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>272.1193461640599</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>130.407515006258</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.819773699966</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6491,10 +6491,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954151</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,10 +7135,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,58 +7400,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192724</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129.4330134067485</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>331.5096644391401</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>179.4561562321925</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>62.75820491637955</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>224.3564267710139</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922705</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660561949</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>135.8503182118961</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.78901421003703</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.83034628221182</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>22.81817176293612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>212.961055692959</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>45.04089287986228</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1260226.388994694</v>
+        <v>1260226.388994695</v>
       </c>
     </row>
     <row r="11">
@@ -26314,13 +26314,13 @@
         <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26329,10 +26329,10 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="I2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="I2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
         <v>161429.3199380012</v>
@@ -26344,7 +26344,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>203438.741612106</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008437</v>
+        <v>55720.99847008435</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768872</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768843</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768876</v>
+        <v>9947.144321768843</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486234</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486232</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486234</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486228</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1128008.841770392</v>
+        <v>-1128368.924786109</v>
       </c>
       <c r="C6" t="n">
-        <v>-236298.5072937629</v>
+        <v>-236298.5072937628</v>
       </c>
       <c r="D6" t="n">
-        <v>-32859.76568165679</v>
+        <v>-32859.76568165675</v>
       </c>
       <c r="E6" t="n">
-        <v>-275052.8160150298</v>
+        <v>-275087.5539404657</v>
       </c>
       <c r="F6" t="n">
-        <v>50359.64579232516</v>
+        <v>50324.90786688949</v>
       </c>
       <c r="G6" t="n">
-        <v>50359.64579232517</v>
+        <v>50324.90786688944</v>
       </c>
       <c r="H6" t="n">
-        <v>50359.64579232525</v>
+        <v>50324.90786688954</v>
       </c>
       <c r="I6" t="n">
-        <v>50359.64579232516</v>
+        <v>50324.90786688957</v>
       </c>
       <c r="J6" t="n">
-        <v>-117245.5320176574</v>
+        <v>-117280.269943093</v>
       </c>
       <c r="K6" t="n">
-        <v>1249.55308627068</v>
+        <v>1214.815160835089</v>
       </c>
       <c r="L6" t="n">
-        <v>23678.51654044732</v>
+        <v>23678.51654044725</v>
       </c>
       <c r="M6" t="n">
-        <v>-41948.79340143275</v>
+        <v>-41948.79340143278</v>
       </c>
       <c r="N6" t="n">
-        <v>43106.23453407896</v>
+        <v>43106.23453407889</v>
       </c>
       <c r="O6" t="n">
-        <v>43106.23453407909</v>
+        <v>43106.23453407901</v>
       </c>
       <c r="P6" t="n">
-        <v>43106.23453407895</v>
+        <v>43106.23453407901</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>155.7118084757592</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.17337718154289</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>60.69401048241483</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.4992587448688</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>41.51411899590994</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>346.816312321187</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>10.63161816093975</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.67482388700395</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>97.22694220307474</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>335.5079019498298</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>302.0150290037629</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>147.9860810679672</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>218.1070131854333</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>496.3643456887891</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.048785629427</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295172</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318498</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
